--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
   <si>
     <t>Priority</t>
     <phoneticPr fontId="1"/>
@@ -889,13 +889,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト未完</t>
-    <rPh sb="3" eb="5">
-      <t>ミカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>参加者</t>
     <rPh sb="0" eb="3">
       <t>サンカシャ</t>
@@ -1064,6 +1057,23 @@
     <t>ポスターを一覧するため</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enPiT前に実装</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト未完Rel.2で / enPiTにて</t>
+    <rPh sb="3" eb="5">
+      <t>ミカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1511,7 +1521,7 @@
   <dimension ref="A1:XFB43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1802,7 +1812,9 @@
       <c r="H11" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
@@ -1828,7 +1840,7 @@
         <v>79</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1855,7 +1867,7 @@
         <v>28</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1865,7 +1877,9 @@
       <c r="B14" s="2">
         <v>5</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
       <c r="D14" s="2">
         <v>2</v>
       </c>
@@ -1894,13 +1908,13 @@
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>24</v>
@@ -1918,13 +1932,13 @@
         <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>24</v>
@@ -1946,13 +1960,13 @@
         <v>89</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -1968,16 +1982,16 @@
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1988,16 +2002,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2008,13 +2022,13 @@
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>24</v>
@@ -2028,13 +2042,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>24</v>
@@ -2048,16 +2062,16 @@
         <v>2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2071,16 +2085,16 @@
         <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
